--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c952f4b3a2b5b940/Documents/Code/Otomatika/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_ABB096245C56C4CFEB3B98154BCA4EBF5A2DE98F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E12F531-8DFB-4B5E-A1DB-4FB00BF2AA5C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_ABB087F4186740CEEB3B98154B09B63B4DE1E9F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,120 +20,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
-  <si>
-    <t>April 17, 2024</t>
-  </si>
-  <si>
-    <t>Google employees stage sit-ins to protest company’s contract with Israel</t>
-  </si>
-  <si>
-    <t>Dozens of Google employees stage sit-ins in California and New York, calling for the company to end its cloud computing contract with Israel’s military amid war with Hamas.</t>
-  </si>
-  <si>
-    <t>a536b0c1-dcf7-4ed5-991c-39ef9a954c56</t>
-  </si>
-  <si>
-    <t>April 13, 2024</t>
-  </si>
-  <si>
-    <t>Fish-eye ice cream is not a stunt. Two Australian chefs get real on sustainability</t>
-  </si>
-  <si>
-    <t>Award-winning Australian chefs Josh Niland and Jo Barrett come from Australia to collaborate on a dinner for 300 on the Malibu Pier.</t>
-  </si>
-  <si>
-    <t>aa7e7378-9094-46c8-a637-a0f8326537e7</t>
-  </si>
-  <si>
-    <t>April 12, 2024</t>
-  </si>
-  <si>
-    <t>How Rosa Jackson found real Niçoise cooking amid the beachside glamour</t>
-  </si>
-  <si>
-    <t>There’s a certain reverse snobbery that some travelers may feel when they first arrive in Nice.</t>
-  </si>
-  <si>
-    <t>2d5a487a-0924-4543-9ca4-1fe2a2b0afa3</t>
-  </si>
-  <si>
-    <t>April 11, 2024</t>
-  </si>
-  <si>
-    <t>Wall Street rebounds after its slide as Big Tech takes the reins again</t>
-  </si>
-  <si>
-    <t>Jumps for Big Tech stocks helped U.S. stock indexes claw back much of their slide from the day before caused by anxiety over interest rates.</t>
-  </si>
-  <si>
-    <t>987bb32e-e9bb-413c-b740-7a4004076a1f</t>
-  </si>
-  <si>
-    <t>April 9, 2024</t>
-  </si>
-  <si>
-    <t>Wall Street barely budges as it braces for Wednesday’s inflation report</t>
-  </si>
-  <si>
-    <t>U.S. stock indexes held at a near-standstill again, as traders made their final moves ahead of some potentially market-moving reports.</t>
-  </si>
-  <si>
-    <t>ea06b59a-256b-4728-9dda-89bb4f059d3f</t>
-  </si>
-  <si>
-    <t>Column: 60 years ago in Los Angeles, piano virtuoso Glenn Gould revolutionized the music industry by ending his concert career</t>
-  </si>
-  <si>
-    <t>Glenn Gould was the most famous concert pianist of his time. When he gave up public performing, everything about recording changed</t>
-  </si>
-  <si>
-    <t>2f9f050e-3c32-46c8-a26c-8e29093d0f15</t>
-  </si>
-  <si>
-    <t>April 8, 2024</t>
-  </si>
-  <si>
-    <t>JPMorgan’s Dimon warns inflation, political polarization, wars creating risks not seen since WWII</t>
-  </si>
-  <si>
-    <t>The nation’s most influential banker, JPMorgan Chase CEO Jamie Dimon, told investors that he continues to expect the U.S. economy to be resilient and grow this year</t>
-  </si>
-  <si>
-    <t>85972cff-8d79-4cba-b904-858e28d0e732</t>
-  </si>
-  <si>
-    <t>April 6, 2024</t>
-  </si>
-  <si>
-    <t>A new Palm Springs restaurant by two L.A. legends fits right into the community</t>
-  </si>
-  <si>
-    <t>Critic Bill Addison writes about Alice B. in Palm Springs, plus a fresh guide to dining in the desert and the Coachella festival food lineup</t>
-  </si>
-  <si>
-    <t>8671af2f-6af9-4472-98b2-15409055ed21</t>
-  </si>
-  <si>
-    <t>March 28, 2024</t>
-  </si>
-  <si>
-    <t>Wall Street rises to more records to close out its latest winning month</t>
-  </si>
-  <si>
-    <t>Wall Street coasted to its latest winning month and quarter by rising to more records.</t>
-  </si>
-  <si>
-    <t>e45aa52f-166d-4940-ae2d-9a0b2038c47b</t>
-  </si>
-  <si>
-    <t>Where to eat, drink and party late-night in Koreatown</t>
-  </si>
-  <si>
-    <t>From karaoke clubs to wine bars to long-running restaurants with kitchens that stay open late, Koreatown will keep you entertained.</t>
-  </si>
-  <si>
-    <t>dba1b45f-15b9-40ec-9f09-f07634ddbe40</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>Oct. 7, 2022</t>
+  </si>
+  <si>
+    <t>Column: The artificial intelligence field is infected with hype. Here’s how not to get duped</t>
+  </si>
+  <si>
+    <t>AI sounds great, but it has never lived up to its promise. Don’t fall for the baloney.</t>
+  </si>
+  <si>
+    <t>d2290241-b54a-4dbb-9cf2-880ad4e865ae</t>
+  </si>
+  <si>
+    <t>Feb. 21, 2020</t>
+  </si>
+  <si>
+    <t>Edison, Morse ... Watson? Artificial intelligence poses test of who’s an inventor</t>
+  </si>
+  <si>
+    <t>Patent offices are grappling with the question of who — if anyone — owns innovations developed using AI.</t>
+  </si>
+  <si>
+    <t>51b042ec-3e14-42ba-8e30-2e982dfb8576</t>
+  </si>
+  <si>
+    <t>July 13, 2023</t>
+  </si>
+  <si>
+    <t>Column: Artificial intelligence chatbots are spreading fast, but hype about them is spreading faster</t>
+  </si>
+  <si>
+    <t>Will artificial intelligence make jobs obsolete and lead to humankind’s extinction? Not on your life</t>
+  </si>
+  <si>
+    <t>6d5b5747-48ac-4d31-9eba-d210c9c5f34b</t>
+  </si>
+  <si>
+    <t>Jan. 25, 2023</t>
+  </si>
+  <si>
+    <t>Column: This artificial intelligence chatbot turns out to be a plagiarist — and an idiot</t>
+  </si>
+  <si>
+    <t>The tech site CNET brought in an artificial intelligence bot to write financial articles, but the product turned out to be worthless and even unethical.</t>
+  </si>
+  <si>
+    <t>83d1bd79-7b53-4d85-9995-758081b7c64d</t>
+  </si>
+  <si>
+    <t>Dec. 11, 2023</t>
+  </si>
+  <si>
+    <t>Microsoft and labor unions form ‘historic’ alliance on AI</t>
+  </si>
+  <si>
+    <t>Microsoft is teaming up with labor unions to create ‘an open dialogue’ on how artificial intelligence will affect workers.</t>
+  </si>
+  <si>
+    <t>01785f7a-c6e6-42f1-b815-f9905d8ce434</t>
+  </si>
+  <si>
+    <t>Jan. 3, 2020</t>
+  </si>
+  <si>
+    <t>Artificial intelligence has come to medicine. Are patients being put at risk?</t>
+  </si>
+  <si>
+    <t>Many doctors and consumer advocates say that AI can’t live up to its hype.</t>
+  </si>
+  <si>
+    <t>Dec. 27, 2023</t>
+  </si>
+  <si>
+    <t>New York Times sues OpenAI, Microsoft over use of its stories to train chatbots</t>
+  </si>
+  <si>
+    <t>The New York Times filed a federal lawsuit against OpenAI and Microsoft seeking to end the practice of using its stories to train chatbots.</t>
+  </si>
+  <si>
+    <t>146815d6-13e4-4bf3-9b12-ccff86df733b</t>
+  </si>
+  <si>
+    <t>Feb. 23, 1986</t>
+  </si>
+  <si>
+    <t>LOS ANGELES COUNTY - News from Feb. 23, 1986</t>
+  </si>
+  <si>
+    <t>Silogic Inc., Los Angeles, an artificial-intelligence software company, named Max Daneshman vice president-sales and Richard Rosen vice president-product development.</t>
+  </si>
+  <si>
+    <t>Jan. 5, 2024</t>
+  </si>
+  <si>
+    <t>Column: Excited about AI and self-driving cars? A top roboticist is here to burst your bubble</t>
+  </si>
+  <si>
+    <t>Will self-driving cars and artificial intelligence take over the world? A distinguished technology expert says don’t hold your breath.</t>
+  </si>
+  <si>
+    <t>42dbcc3c-7d7d-464f-a9bb-2fb0c9df56a1</t>
+  </si>
+  <si>
+    <t>July 21, 2023</t>
+  </si>
+  <si>
+    <t>What seven AI companies say they’ll do to safeguard their tech</t>
+  </si>
+  <si>
+    <t>Seven leading artificial intelligence firms announced new voluntary safeguards designed to minimize abuse of and bias within the emerging technology.</t>
+  </si>
+  <si>
+    <t>f0d57cc6-4037-4bbe-a8a4-a5cb01db70df</t>
   </si>
 </sst>
 </file>
@@ -475,17 +475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="39.5546875" customWidth="1"/>
-    <col min="2" max="2" width="41.21875" customWidth="1"/>
-    <col min="3" max="3" width="43.109375" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -604,15 +596,12 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="b">
@@ -658,9 +647,6 @@
       <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
@@ -673,16 +659,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -696,7 +682,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
